--- a/auto_usate.xlsx
+++ b/auto_usate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Desktop\Boolean\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CED246-6156-47EF-8233-C0328D19684C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE05B82D-F3BE-43C8-9986-43FE8098CFE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24000" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>km/l</t>
   </si>
@@ -97,12 +97,6 @@
     <t>TINYINT</t>
   </si>
   <si>
-    <t>NOTNULL</t>
-  </si>
-  <si>
-    <t>PRIMARYKEY</t>
-  </si>
-  <si>
     <t>DEFAULT(not_in_db)</t>
   </si>
   <si>
@@ -122,6 +116,18 @@
   </si>
   <si>
     <t>gasoline</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>AUTO INCREMENT</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
   </si>
 </sst>
 </file>
@@ -165,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -448,17 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
@@ -467,250 +473,278 @@
     <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2011</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>875</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>174</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>24</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1205</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2021</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4395</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>68</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>305</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>22.321000000000002</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1800</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2021</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>38</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>164</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>19.14</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>955</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>500</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2016</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1242</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>35</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>160</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21.234000000000002</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>940</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
         <v>2017</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>999</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>42</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>183</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>23.55</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>980</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
+      <c r="D7">
         <v>2016</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1196</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>159</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1084</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -720,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFC5AD3-2826-4B95-B01D-25EB97524DE4}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,6 +765,7 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,46 +778,52 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -790,54 +831,54 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -845,28 +886,41 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>